--- a/report/Custom Report - Personil Pendukung Pandu.xlsx
+++ b/report/Custom Report - Personil Pendukung Pandu.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947755EA-5BD3-422E-9810-331DA7AD95B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEND. PANDU" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>NO</t>
   </si>
@@ -45,15 +46,6 @@
     <t>CABANG</t>
   </si>
   <si>
-    <t>TANGGAL MULAI SK</t>
-  </si>
-  <si>
-    <t>TANGGAL MULAI SKPPP</t>
-  </si>
-  <si>
-    <t>TANGGAL SELESAI SKPPP</t>
-  </si>
-  <si>
     <t>${table:pk.nama}</t>
   </si>
   <si>
@@ -84,9 +76,6 @@
     <t>MANNING AGENCY</t>
   </si>
   <si>
-    <t>NO SK</t>
-  </si>
-  <si>
     <t>JENIS SERTIFIKAT</t>
   </si>
   <si>
@@ -111,12 +100,6 @@
     <t>${table:pk.TANGGAL_MULAI}</t>
   </si>
   <si>
-    <t>${table:pk.SKPP_TANGGAL_MULAI}</t>
-  </si>
-  <si>
-    <t>${table:pk.skpp_SKPP_TANGGAL_SELESAI}</t>
-  </si>
-  <si>
     <t>${table:pk.JENISCERT}</t>
   </si>
   <si>
@@ -139,12 +122,18 @@
   </si>
   <si>
     <t>${table:pk.KAPAL}</t>
+  </si>
+  <si>
+    <t>NO SK/PKL</t>
+  </si>
+  <si>
+    <t>TANGGAL MULAI SK/PKL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,45 +532,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" customWidth="1"/>
-    <col min="16" max="16" width="34.77734375" customWidth="1"/>
-    <col min="17" max="17" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.44140625" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -607,113 +594,101 @@
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/Custom Report - Personil Pendukung Pandu.xlsx
+++ b/report/Custom Report - Personil Pendukung Pandu.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947755EA-5BD3-422E-9810-331DA7AD95B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PEND. PANDU" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>NO</t>
   </si>
@@ -118,9 +117,6 @@
     <t>${table:pk.EXPIRED}</t>
   </si>
   <si>
-    <t>${table:pk.manning}</t>
-  </si>
-  <si>
     <t>${table:pk.KAPAL}</t>
   </si>
   <si>
@@ -128,12 +124,21 @@
   </si>
   <si>
     <t>TANGGAL MULAI SK/PKL</t>
+  </si>
+  <si>
+    <t>${table:pk.MANNING}</t>
+  </si>
+  <si>
+    <t>TANGGAL SELESAI SK/PKL</t>
+  </si>
+  <si>
+    <t>${table:pk.TANGGAL_SELESAI}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,43 +537,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1"/>
+    <col min="15" max="15" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.44140625" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -600,33 +606,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -652,10 +661,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>12</v>
@@ -664,24 +673,26 @@
         <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -689,6 +700,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/Custom Report - Personil Pendukung Pandu.xlsx
+++ b/report/Custom Report - Personil Pendukung Pandu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>NO</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>${table:pk.TANGGAL_SELESAI}</t>
+  </si>
+  <si>
+    <t>PERSONIL PENDUKUNG PANDU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,11 +241,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +277,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,135 +603,183 @@
     <col min="32" max="32" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:29" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:29" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
